--- a/biology/Botanique/Gennarie_à_deux_feuilles/Gennarie_à_deux_feuilles.xlsx
+++ b/biology/Botanique/Gennarie_à_deux_feuilles/Gennarie_à_deux_feuilles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gennarie_%C3%A0_deux_feuilles</t>
+          <t>Gennarie_à_deux_feuilles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gennaria diphylla
 La Gennarie à deux feuilles (Gennaria diphylla) est une espèce de plantes à fleurs de la familles des Orchidaceae (les orchidées) répartie dans la région méditerranéo-atlantique.
-On la trouve surtout en Algérie, Maroc, Espagne, Portugal, Madère et îles Canaries. Elle est très rare en Tunisie, en Corse, en Sardaigne et dans l'île d'Elbe [1].
+On la trouve surtout en Algérie, Maroc, Espagne, Portugal, Madère et îles Canaries. Elle est très rare en Tunisie, en Corse, en Sardaigne et dans l'île d'Elbe .
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gennarie_%C3%A0_deux_feuilles</t>
+          <t>Gennarie_à_deux_feuilles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Satyrium diphyllum Link, Orphys diphylla (Link) Samp., Coeloglossum diphyllum (Link) Fiori &amp; Paoletti.
 </t>
